--- a/BillingAdditionalTasks.xlsx
+++ b/BillingAdditionalTasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPZ7tzh\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPZ7tzh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Billing Additional Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="95">
   <si>
     <t>Morty</t>
   </si>
@@ -316,7 +318,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -409,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -417,10 +419,79 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,80 +500,29 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -616,44 +636,32 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFA3A3A3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,27 +674,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:F54">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2020" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" name="User"/>
-    <tableColumn id="2" name="Task"/>
-    <tableColumn id="3" name="Time Spent on Task"/>
-    <tableColumn id="4" name="Progress" dataDxfId="6"/>
-    <tableColumn id="5" name="Date Start" dataDxfId="5"/>
-    <tableColumn id="6" name="Date Finish" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,39 +940,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -999,13 +986,13 @@
       <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
         <v>43789</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43789</v>
       </c>
     </row>
@@ -1019,13 +1006,13 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
         <v>43753</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43759</v>
       </c>
     </row>
@@ -1039,13 +1026,13 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
         <v>43749</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>43753</v>
       </c>
     </row>
@@ -1059,11 +1046,11 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1075,13 +1062,13 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
         <v>43766</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="10">
         <v>43766</v>
       </c>
     </row>
@@ -1095,13 +1082,13 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>43769</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="10">
         <v>43769</v>
       </c>
     </row>
@@ -1115,13 +1102,13 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>43766</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="10">
         <v>43770</v>
       </c>
     </row>
@@ -1135,13 +1122,13 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
         <v>43766</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="10">
         <v>43769</v>
       </c>
     </row>
@@ -1155,13 +1142,13 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>43766</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <v>43773</v>
       </c>
     </row>
@@ -1175,13 +1162,13 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
         <v>43766</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <v>43773</v>
       </c>
     </row>
@@ -1195,13 +1182,13 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
         <v>43791</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>43791</v>
       </c>
     </row>
@@ -1215,13 +1202,13 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>43791</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="10">
         <v>43791</v>
       </c>
     </row>
@@ -1235,13 +1222,13 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
         <v>43773</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="10">
         <v>43773</v>
       </c>
     </row>
@@ -1255,13 +1242,13 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
         <v>43770</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="10">
         <v>43770</v>
       </c>
     </row>
@@ -1275,13 +1262,13 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
         <v>43770</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="10">
         <v>43770</v>
       </c>
     </row>
@@ -1295,13 +1282,13 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
         <v>43773</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="10">
         <v>43773</v>
       </c>
     </row>
@@ -1315,13 +1302,13 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="20">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
         <v>43776</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="10">
         <v>43776</v>
       </c>
     </row>
@@ -1335,13 +1322,13 @@
       <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
         <v>43775</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="10">
         <v>43775</v>
       </c>
     </row>
@@ -1355,13 +1342,13 @@
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>43780</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1375,13 +1362,13 @@
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="20">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
         <v>43781</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="10">
         <v>43781</v>
       </c>
     </row>
@@ -1395,13 +1382,13 @@
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="20">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
         <v>43774</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="10">
         <v>43774</v>
       </c>
     </row>
@@ -1415,13 +1402,13 @@
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
         <v>43789</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="10">
         <v>43789</v>
       </c>
     </row>
@@ -1435,41 +1422,41 @@
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="20">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
         <v>43782</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="10">
         <v>43782</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="21">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19">
         <v>43795</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1481,13 +1468,13 @@
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
         <v>43784</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="10">
         <v>43800</v>
       </c>
     </row>
@@ -1501,13 +1488,13 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="12">
         <v>0.8</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="10">
         <v>43803</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -1519,13 +1506,13 @@
       <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="12">
         <v>0.75</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="10">
         <v>43790</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -1535,9 +1522,9 @@
         <v>49</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -1549,11 +1536,11 @@
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="16">
+      <c r="D31" s="12"/>
+      <c r="E31" s="10">
         <v>43780</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1565,11 +1552,11 @@
       <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="16">
+      <c r="D32" s="12"/>
+      <c r="E32" s="10">
         <v>43811</v>
       </c>
-      <c r="F32" s="16"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1581,11 +1568,11 @@
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="16">
+      <c r="D33" s="12"/>
+      <c r="E33" s="10">
         <v>43780</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -1597,11 +1584,11 @@
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16">
+      <c r="D34" s="12"/>
+      <c r="E34" s="10">
         <v>43805</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1613,11 +1600,11 @@
       <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="16">
+      <c r="D35" s="12"/>
+      <c r="E35" s="10">
         <v>43810</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -1629,13 +1616,13 @@
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="20">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16">
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
         <v>43800</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="10">
         <v>43806</v>
       </c>
     </row>
@@ -1649,13 +1636,13 @@
       <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="12">
         <v>0.85</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="10">
         <v>43812</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
@@ -1667,13 +1654,13 @@
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="12">
         <v>0.6</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="10">
         <v>43819</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -1685,69 +1672,69 @@
       <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="20">
-        <v>1</v>
-      </c>
-      <c r="E39" s="16">
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
         <v>43821</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="10">
         <v>43821</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="21">
-        <v>1</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="D40" s="26">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19">
         <v>43825</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="19">
         <v>43825</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="26">
         <v>0.7</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="19">
         <v>43826</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -1759,13 +1746,13 @@
       <c r="C44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="12">
         <v>0.1</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="10">
         <v>43826</v>
       </c>
-      <c r="F44" s="16"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -1777,185 +1764,999 @@
       <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="20">
-        <v>1</v>
-      </c>
-      <c r="E45" s="16">
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
         <v>43826</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="10">
         <v>43826</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D46" s="30">
+        <v>1</v>
+      </c>
+      <c r="E46" s="31">
+        <v>43789</v>
+      </c>
+      <c r="F46" s="31">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="30">
+        <v>1</v>
+      </c>
+      <c r="E47" s="31">
+        <v>43753</v>
+      </c>
+      <c r="F47" s="31">
+        <v>43759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+      <c r="E48" s="31">
+        <v>43749</v>
+      </c>
+      <c r="F48" s="31">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="30">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="30">
+        <v>1</v>
+      </c>
+      <c r="E50" s="31">
+        <v>43766</v>
+      </c>
+      <c r="F50" s="31">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="30">
+        <v>1</v>
+      </c>
+      <c r="E51" s="31">
+        <v>43769</v>
+      </c>
+      <c r="F51" s="31">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="30">
+        <v>1</v>
+      </c>
+      <c r="E52" s="31">
+        <v>43766</v>
+      </c>
+      <c r="F52" s="31">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="30">
+        <v>1</v>
+      </c>
+      <c r="E53" s="31">
+        <v>43766</v>
+      </c>
+      <c r="F53" s="31">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="30">
+        <v>1</v>
+      </c>
+      <c r="E54" s="31">
+        <v>43766</v>
+      </c>
+      <c r="F54" s="31">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="30">
+        <v>1</v>
+      </c>
+      <c r="E55" s="31">
+        <v>43766</v>
+      </c>
+      <c r="F55" s="31">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="30">
+        <v>1</v>
+      </c>
+      <c r="E56" s="31">
+        <v>43791</v>
+      </c>
+      <c r="F56" s="31">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="30">
+        <v>1</v>
+      </c>
+      <c r="E57" s="31">
+        <v>43791</v>
+      </c>
+      <c r="F57" s="31">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="30">
+        <v>1</v>
+      </c>
+      <c r="E58" s="31">
+        <v>43773</v>
+      </c>
+      <c r="F58" s="31">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="30">
+        <v>1</v>
+      </c>
+      <c r="E59" s="31">
+        <v>43770</v>
+      </c>
+      <c r="F59" s="31">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="30">
+        <v>1</v>
+      </c>
+      <c r="E60" s="31">
+        <v>43770</v>
+      </c>
+      <c r="F60" s="31">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="30">
+        <v>1</v>
+      </c>
+      <c r="E61" s="31">
+        <v>43773</v>
+      </c>
+      <c r="F61" s="31">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="30">
+        <v>1</v>
+      </c>
+      <c r="E62" s="31">
+        <v>43776</v>
+      </c>
+      <c r="F62" s="31">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="30">
+        <v>1</v>
+      </c>
+      <c r="E63" s="31">
+        <v>43775</v>
+      </c>
+      <c r="F63" s="31">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="30">
+        <v>1</v>
+      </c>
+      <c r="E64" s="31">
+        <v>43780</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="30">
+        <v>1</v>
+      </c>
+      <c r="E65" s="31">
+        <v>43781</v>
+      </c>
+      <c r="F65" s="31">
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="30">
+        <v>1</v>
+      </c>
+      <c r="E66" s="31">
+        <v>43774</v>
+      </c>
+      <c r="F66" s="31">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="30">
+        <v>1</v>
+      </c>
+      <c r="E67" s="31">
+        <v>43789</v>
+      </c>
+      <c r="F67" s="31">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="30">
+        <v>1</v>
+      </c>
+      <c r="E68" s="31">
+        <v>43782</v>
+      </c>
+      <c r="F68" s="31">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="32">
+        <v>1</v>
+      </c>
+      <c r="E69" s="34">
+        <v>43795</v>
+      </c>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="24"/>
+    </row>
+    <row r="71" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="30">
+        <v>1</v>
+      </c>
+      <c r="E71" s="31">
+        <v>43784</v>
+      </c>
+      <c r="F71" s="31">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E72" s="31">
+        <v>43803</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="E73" s="31">
+        <v>43790</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="31">
+        <v>43780</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="31">
+        <v>43811</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="31">
+        <v>43780</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="31">
+        <v>43805</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="31">
+        <v>43810</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="30">
+        <v>1</v>
+      </c>
+      <c r="E80" s="31">
+        <v>43800</v>
+      </c>
+      <c r="F80" s="31">
+        <v>43806</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="E81" s="31">
+        <v>43812</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="E82" s="31">
+        <v>43819</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="30">
+        <v>1</v>
+      </c>
+      <c r="E83" s="31">
+        <v>43821</v>
+      </c>
+      <c r="F83" s="31">
+        <v>43821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="28">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D84" s="32">
+        <v>1</v>
+      </c>
+      <c r="E84" s="34">
+        <v>43825</v>
+      </c>
+      <c r="F84" s="34">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="E86" s="34">
+        <v>43826</v>
+      </c>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="24"/>
+    </row>
+    <row r="88" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="31">
+        <v>43826</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="30">
+        <v>1</v>
+      </c>
+      <c r="E89" s="31">
+        <v>43826</v>
+      </c>
+      <c r="F89" s="31">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="20">
-        <v>1</v>
-      </c>
-      <c r="E46" s="16">
+      <c r="D90" s="12">
+        <v>1</v>
+      </c>
+      <c r="E90" s="10">
         <v>43874</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F90" s="10">
         <v>43874</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
+    <row r="91" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="20">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16">
+      <c r="D91" s="12">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
         <v>43867</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F91" s="10">
         <v>43867</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D92" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E92" s="10">
         <v>43867</v>
       </c>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27" t="s">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B93" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="20">
-        <v>1</v>
-      </c>
-      <c r="E49" s="16">
+      <c r="D93" s="12">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
         <v>43871</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F93" s="10">
         <v>43871</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="28" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B94" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C94" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D94" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E94" s="19">
         <v>43874</v>
       </c>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="27" t="s">
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="22"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B96" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D96" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E96" s="10">
         <v>43873</v>
       </c>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27" t="s">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B97" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D97" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E97" s="10">
         <v>43873</v>
       </c>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B98" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C98" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D98" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E98" s="14">
         <v>43879</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F98" s="14"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="24">
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
+  <mergeCells count="42">
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="A40:A41"/>
@@ -1964,22 +2765,29 @@
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:F54">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A1:F45">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A90:F98">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A90))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F45 E90:F1048576">
       <formula1>43831</formula1>
     </dataValidation>
   </dataValidations>
@@ -1988,8 +2796,19 @@
   <ignoredErrors>
     <ignoredError sqref="F4" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>